--- a/doc/01. 프로젝트 설계/07. 부품 견적서/실습기자재 목록.xlsx
+++ b/doc/01. 프로젝트 설계/07. 부품 견적서/실습기자재 목록.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="552" windowWidth="17232" windowHeight="8076"/>
+    <workbookView xWindow="240" yWindow="1008" windowWidth="17232" windowHeight="8076"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>실습기자재 목록</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -98,14 +98,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">[K-ROBOT] 서보형 DC모터 (KR-300) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.devicemart.co.kr/goods/view?no=30700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[K-ROBOT] 서보형 DC모터 (KR-300) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1개</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=14062150</t>
+  </si>
+  <si>
+    <t>[이엘사이언스] 마이루프(MYLOOP) 컨베이어 벨트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -239,10 +263,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,7 +578,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -569,27 +593,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -630,13 +654,15 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="5">
         <v>22000</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
@@ -645,13 +671,15 @@
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="5">
         <v>13900</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
@@ -660,7 +688,7 @@
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="5">
@@ -677,39 +705,49 @@
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="5">
         <v>800</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="F8" s="5">
         <v>16000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="5">
+        <v>25500</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
@@ -981,9 +1019,10 @@
     <hyperlink ref="E4" r:id="rId1"/>
     <hyperlink ref="E6" r:id="rId2"/>
     <hyperlink ref="E7" r:id="rId3"/>
+    <hyperlink ref="E8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
